--- a/projects/TestProjekt-1/metadata.xlsx
+++ b/projects/TestProjekt-1/metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\Website_Prototype\projects\TestProjekt-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA2A024-A73D-4B91-BE2B-DB94FFE0CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>student_folder</t>
+  </si>
+  <si>
+    <t>author1</t>
+  </si>
+  <si>
+    <t>author2</t>
+  </si>
+  <si>
+    <t>author3</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>blauer_löwe</t>
+  </si>
+  <si>
+    <t>gelber_ochse</t>
+  </si>
+  <si>
+    <t>grüne_giraffe</t>
+  </si>
+  <si>
+    <t>lila_gürteltier</t>
+  </si>
+  <si>
+    <t>pinker_panther</t>
+  </si>
+  <si>
+    <t>roter_affe</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Morits</t>
+  </si>
+  <si>
+    <t>Hänsel</t>
+  </si>
+  <si>
+    <t>Gretel</t>
+  </si>
+  <si>
+    <t>Strubbelpeter</t>
+  </si>
+  <si>
+    <t>Hans im Glück</t>
+  </si>
+  <si>
+    <t>Pepe Nietnagel</t>
+  </si>
+  <si>
+    <t>Genevieve Ponelle</t>
+  </si>
+  <si>
+    <t>Dr Gottlieb Taft</t>
+  </si>
+  <si>
+    <t>Dr. Knörz</t>
+  </si>
+  <si>
+    <t>Priehl</t>
+  </si>
+  <si>
+    <t>Susie Rixner</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +413,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/projects/TestProjekt-1/metadata.xlsx
+++ b/projects/TestProjekt-1/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\Website_Prototype\projects\TestProjekt-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\Website_Prototype\projects\TestProjekt-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA2A024-A73D-4B91-BE2B-DB94FFE0CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B790A49F-3D36-48E0-8CE1-B92D662DBB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Morits</t>
-  </si>
-  <si>
     <t>Hänsel</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Moritz</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,10 +451,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -496,10 +496,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -527,10 +527,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
